--- a/shinyapp/data/LunchParticipation.xlsx
+++ b/shinyapp/data/LunchParticipation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josborne24\Desktop\2022_DSPG_Loudoun\shinyapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1BAE40-5253-4D9F-B42A-39BF3774BABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{40ABBE82-D20C-4E1F-B735-9085895C249D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="4470"/>
   </bookViews>
@@ -916,6 +916,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
